--- a/data/apparel.xlsx
+++ b/data/apparel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C378652-A472-4CCF-BC40-699344BA6798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{522FC11C-49E9-491E-A49C-DD5A47E9D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -419,16 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,555 +439,615 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
-        <v>45626</v>
+        <v>45748</v>
       </c>
       <c r="B2" s="2">
-        <v>26.32</v>
+        <v>25.97</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C32" si="0">(B2/B14-1)*100</f>
-        <v>2.2533022533022695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C2:C6" si="0">(B2/B14-1)*100</f>
+        <v>0.30899961375048246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>45596</v>
+        <v>45717</v>
       </c>
       <c r="B3" s="2">
-        <v>26.38</v>
+        <v>25.97</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>3.6542239685658062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5671406003159536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>45565</v>
+        <v>45689</v>
       </c>
       <c r="B4" s="2">
-        <v>26.26</v>
+        <v>25.68</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.6984747751271021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.0404624277456587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>45535</v>
+        <v>45658</v>
       </c>
       <c r="B5" s="2">
-        <v>26.05</v>
+        <v>25.71</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.50154320987654266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.96302003081664145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>45504</v>
+        <v>45627</v>
       </c>
       <c r="B6" s="2">
-        <v>26.3</v>
+        <v>25.84</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
+        <v>-1.1854684512428215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C37" si="1">(B7/B19-1)*100</f>
+        <v>2.2533022533022695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26.38</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.6542239685658062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B9" s="2">
+        <v>26.26</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.6984747751271021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B10" s="2">
+        <v>26.05</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.50154320987654266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>2.8146989835809322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45473</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B12" s="2">
         <v>26.25</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>3.7959667852906387</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45443</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B13" s="2">
         <v>26.23</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>4.087301587301595</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B14" s="2">
         <v>25.89</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>2.9014308426073221</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45382</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B15" s="2">
         <v>25.32</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="C15">
+        <f t="shared" si="1"/>
         <v>-0.27569909413155402</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B16" s="2">
         <v>25.95</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="C16">
+        <f t="shared" si="1"/>
         <v>1.5258215962441257</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B17" s="2">
         <v>25.96</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="C17">
+        <f t="shared" si="1"/>
         <v>-0.3072196620583667</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45291</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B18" s="2">
         <v>26.15</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>4.9357945425360983</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B19" s="2">
         <v>25.74</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
+      <c r="C19">
+        <f t="shared" si="1"/>
         <v>1.4184397163120588</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B20" s="2">
         <v>25.45</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
+      <c r="C20">
+        <f t="shared" si="1"/>
         <v>-0.5859375000000111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45199</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B21" s="2">
         <v>25.57</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="C21">
+        <f t="shared" si="1"/>
         <v>7.8277886497057914E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45169</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B22" s="2">
         <v>25.92</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
+      <c r="C22">
+        <f t="shared" si="1"/>
         <v>2.6128266033254244</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45138</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B23" s="2">
         <v>25.58</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>2.4429315178213784</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="2">
         <v>25.29</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>-1.0563380281690127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45077</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B25" s="2">
         <v>25.2</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
+      <c r="C25">
+        <f t="shared" si="1"/>
         <v>-0.70921985815602939</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45046</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B26" s="2">
         <v>25.16</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
+      <c r="C26">
+        <f t="shared" si="1"/>
         <v>-2.7820710973724849</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B27" s="2">
         <v>25.39</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
+      <c r="C27">
+        <f t="shared" si="1"/>
         <v>-2.7575641516660254</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44985</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B28" s="2">
         <v>25.56</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
+      <c r="C28">
+        <f t="shared" si="1"/>
         <v>1.8326693227091573</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B29" s="2">
         <v>26.04</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
+      <c r="C29">
+        <f t="shared" si="1"/>
         <v>7.2487644151564945</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B30" s="2">
         <v>24.92</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
+      <c r="C30">
+        <f t="shared" si="1"/>
         <v>0.20104543626859872</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B31" s="2">
         <v>25.38</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
+      <c r="C31">
+        <f t="shared" si="1"/>
         <v>-1.3219284603421477</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B32" s="2">
         <v>25.6</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
+      <c r="C32">
+        <f t="shared" si="1"/>
         <v>2.277267279264894</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B33" s="2">
         <v>25.55</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="C33">
+        <f t="shared" si="1"/>
         <v>2.6929260450160752</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B34" s="2">
         <v>25.26</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
+      <c r="C34">
+        <f t="shared" si="1"/>
         <v>2.7246848312322047</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44773</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B35" s="2">
         <v>24.97</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
+      <c r="C35">
+        <f t="shared" si="1"/>
         <v>-0.31936127744511822</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B36" s="2">
         <v>25.56</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
+      <c r="C36">
+        <f t="shared" si="1"/>
         <v>-3.9108330074311137E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B37" s="2">
         <v>25.38</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
+      <c r="C37">
+        <f t="shared" si="1"/>
         <v>3.0869212022745618</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44681</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B38" s="2">
         <v>25.88</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C39" si="1">(B33/B45-1)*100</f>
+      <c r="C38">
+        <f t="shared" ref="C38:C44" si="2">(B38/B50-1)*100</f>
         <v>8.0133555926544133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B39" s="2">
         <v>26.11</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
+      <c r="C39">
+        <f t="shared" si="2"/>
         <v>8.701082431307249</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B40" s="2">
         <v>25.1</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
+      <c r="C40">
+        <f t="shared" si="2"/>
         <v>26.130653266331684</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44592</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="2">
         <v>24.28</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
+      <c r="C41">
+        <f t="shared" si="2"/>
         <v>15.125651967757236</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B42" s="2">
         <v>24.87</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
+      <c r="C42">
+        <f t="shared" si="2"/>
         <v>24.287856071964022</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B43" s="2">
         <v>25.72</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
+      <c r="C43">
+        <f t="shared" si="2"/>
         <v>35.226077812828606</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B44" s="2">
         <v>25.03</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
+      <c r="C44">
+        <f t="shared" si="2"/>
         <v>23.300492610837441</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B45" s="2">
         <v>24.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B46" s="2">
         <v>24.59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>44408</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B47" s="2">
         <v>25.05</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B48" s="2">
         <v>25.57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44347</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B49" s="2">
         <v>24.62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44316</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B50" s="2">
         <v>23.96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B51" s="2">
         <v>24.02</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B52" s="2">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B53" s="2">
         <v>21.09</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B54" s="2">
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B55" s="2">
         <v>19.02</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>44135</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B56" s="2">
         <v>20.3</v>
       </c>
     </row>

--- a/data/apparel.xlsx
+++ b/data/apparel.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{522FC11C-49E9-491E-A49C-DD5A47E9D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,638 +445,632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col width="9.83984375" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45748</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2" t="n">
         <v>25.97</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C6" si="0">(B2/B14-1)*100</f>
-        <v>0.30899961375048246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="C3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2" t="n">
         <v>25.97</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2.5671406003159536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="C4" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45689</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2" t="n">
         <v>25.68</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-1.0404624277456587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="C5" t="n">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2" t="n">
         <v>25.71</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-0.96302003081664145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+      <c r="C6" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2" t="n">
         <v>25.84</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-1.1854684512428215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="C7" t="n">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>26.32</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C37" si="1">(B7/B19-1)*100</f>
-        <v>2.2533022533022695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="C8" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2" t="n">
         <v>26.38</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>3.6542239685658062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="C9" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2" t="n">
         <v>26.26</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>2.6984747751271021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="C10" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2" t="n">
         <v>26.05</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0.50154320987654266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2" t="n">
         <v>26.3</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>2.8146989835809322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+      <c r="C12" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>26.25</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>3.7959667852906387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="C13" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2" t="n">
         <v>26.23</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>4.087301587301595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="C14" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>25.89</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>2.9014308426073221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="C15" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>25.32</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>-0.27569909413155402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="C16" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2" t="n">
         <v>25.95</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1.5258215962441257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="C17" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2" t="n">
         <v>25.96</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>-0.3072196620583667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="C18" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2" t="n">
         <v>26.15</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>4.9357945425360983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+      <c r="C19" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1.4184397163120588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+      <c r="C20" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2" t="n">
         <v>25.45</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>-0.5859375000000111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
+      <c r="C21" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2" t="n">
         <v>25.57</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>7.8277886497057914E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
+      <c r="C22" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45139</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2" t="n">
         <v>25.92</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>2.6128266033254244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
+      <c r="C23" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45108</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>2.4429315178213784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
+      <c r="C24" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2" t="n">
         <v>25.29</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-1.0563380281690127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
+      <c r="C25" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>-0.70921985815602939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
+      <c r="C26" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>-2.7820710973724849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
+      <c r="C27" t="n">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>44986</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2" t="n">
         <v>25.39</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>-2.7575641516660254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
+      <c r="C28" t="n">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>44958</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2" t="n">
         <v>25.56</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>1.8326693227091573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
+      <c r="C29" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>44927</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2" t="n">
         <v>26.04</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>7.2487644151564945</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1">
+      <c r="C30" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2" t="n">
         <v>24.92</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>0.20104543626859872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
+      <c r="C31" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2" t="n">
         <v>25.38</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-1.3219284603421477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
+      <c r="C32" t="n">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>2.277267279264894</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1">
+      <c r="C33" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>44805</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2" t="n">
         <v>25.55</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>2.6929260450160752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
+      <c r="C34" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>44774</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2" t="n">
         <v>25.26</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>2.7246848312322047</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1">
+      <c r="C35" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>44743</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2" t="n">
         <v>24.97</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>-0.31936127744511822</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1">
+      <c r="C36" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>44713</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2" t="n">
         <v>25.56</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>-3.9108330074311137E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
+      <c r="C37" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>44682</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2" t="n">
         <v>25.38</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>3.0869212022745618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
+      <c r="C38" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>44652</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="2" t="n">
         <v>25.88</v>
       </c>
-      <c r="C38">
-        <f t="shared" ref="C38:C44" si="2">(B38/B50-1)*100</f>
-        <v>8.0133555926544133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1">
+      <c r="C39" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>44621</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2" t="n">
         <v>26.11</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>8.701082431307249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1">
+      <c r="C40" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>44593</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="2" t="n">
         <v>25.1</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>26.130653266331684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1">
+      <c r="C41" t="n">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>44562</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2" t="n">
         <v>24.28</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
-        <v>15.125651967757236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
+      <c r="C42" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>44531</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2" t="n">
         <v>24.87</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>24.287856071964022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1">
+      <c r="C43" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>44501</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2" t="n">
         <v>25.72</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>35.226077812828606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1">
+      <c r="C44" t="n">
+        <v>35.23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>44470</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="2" t="n">
         <v>25.03</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
-        <v>23.300492610837441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1">
+      <c r="C45" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44440</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2" t="n">
         <v>24.88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>44409</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2" t="n">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2" t="n">
         <v>25.05</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1">
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>44348</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2" t="n">
         <v>25.57</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>44317</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2" t="n">
         <v>24.62</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>44287</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2" t="n">
         <v>23.96</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>44256</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2" t="n">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>44228</v>
       </c>
-      <c r="B52" s="2">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
+      <c r="B53" s="2" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>44197</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="2" t="n">
         <v>21.09</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>44166</v>
       </c>
-      <c r="B54" s="2">
-        <v>20.010000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1">
+      <c r="B55" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>44136</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2" t="n">
         <v>19.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2" t="n">
         <v>20.3</v>
       </c>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/apparel.xlsx
+++ b/data/apparel.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,596 +481,609 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>26.18</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>-0.19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>25.97</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>25.68</v>
+        <v>25.97</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.04</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.96</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.19</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>26.32</v>
+        <v>25.84</v>
       </c>
       <c r="C8" t="n">
-        <v>2.25</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>26.38</v>
+        <v>26.32</v>
       </c>
       <c r="C9" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>26.26</v>
+        <v>26.38</v>
       </c>
       <c r="C10" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>26.05</v>
+        <v>26.26</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>26.3</v>
+        <v>26.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.81</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>26.25</v>
+        <v>26.3</v>
       </c>
       <c r="C13" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>26.23</v>
+        <v>26.25</v>
       </c>
       <c r="C14" t="n">
-        <v>4.09</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>25.89</v>
+        <v>26.23</v>
       </c>
       <c r="C15" t="n">
-        <v>2.9</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>25.32</v>
+        <v>25.89</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.28</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>25.95</v>
+        <v>25.32</v>
       </c>
       <c r="C17" t="n">
-        <v>1.53</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>25.96</v>
+        <v>25.95</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>26.15</v>
+        <v>25.96</v>
       </c>
       <c r="C19" t="n">
-        <v>4.94</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>25.74</v>
+        <v>26.15</v>
       </c>
       <c r="C20" t="n">
-        <v>1.42</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>25.45</v>
+        <v>25.74</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.59</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>25.57</v>
+        <v>25.45</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>25.92</v>
+        <v>25.57</v>
       </c>
       <c r="C23" t="n">
-        <v>2.61</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>25.58</v>
+        <v>25.92</v>
       </c>
       <c r="C24" t="n">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>25.29</v>
+        <v>25.58</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.06</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>25.2</v>
+        <v>25.29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.71</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>25.16</v>
+        <v>25.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.78</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.76</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>25.56</v>
+        <v>25.39</v>
       </c>
       <c r="C29" t="n">
-        <v>1.83</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>26.04</v>
+        <v>25.56</v>
       </c>
       <c r="C30" t="n">
-        <v>7.25</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>24.92</v>
+        <v>26.04</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>25.38</v>
+        <v>24.92</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>25.6</v>
+        <v>25.38</v>
       </c>
       <c r="C33" t="n">
-        <v>2.28</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="C34" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>25.26</v>
+        <v>25.55</v>
       </c>
       <c r="C35" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>24.97</v>
+        <v>25.26</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.32</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>25.56</v>
+        <v>24.97</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>25.38</v>
+        <v>25.56</v>
       </c>
       <c r="C38" t="n">
-        <v>3.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>25.88</v>
+        <v>25.38</v>
       </c>
       <c r="C39" t="n">
-        <v>8.01</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>26.11</v>
+        <v>25.88</v>
       </c>
       <c r="C40" t="n">
-        <v>8.699999999999999</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>25.1</v>
+        <v>26.11</v>
       </c>
       <c r="C41" t="n">
-        <v>26.13</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>24.28</v>
+        <v>25.1</v>
       </c>
       <c r="C42" t="n">
-        <v>15.13</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>24.87</v>
+        <v>24.28</v>
       </c>
       <c r="C43" t="n">
-        <v>24.29</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>25.72</v>
+        <v>24.87</v>
       </c>
       <c r="C44" t="n">
-        <v>35.23</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>25.03</v>
+        <v>25.72</v>
       </c>
       <c r="C45" t="n">
-        <v>23.3</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>25.03</v>
+      </c>
+      <c r="C46" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>24.59</v>
+        <v>24.88</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>25.05</v>
+        <v>24.59</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>25.57</v>
+        <v>25.05</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24.62</v>
+        <v>25.57</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>23.96</v>
+        <v>24.62</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24.02</v>
+        <v>23.96</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>19.9</v>
+        <v>24.02</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>21.09</v>
+        <v>19.9</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>20.01</v>
+        <v>21.09</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>19.02</v>
+        <v>20.01</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B58" s="2" t="n">
         <v>20.3</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/apparel.xlsx
+++ b/data/apparel.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,609 +481,622 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.34</v>
+        <v>26.62</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>26.18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>-0.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>25.97</v>
       </c>
       <c r="C5" t="n">
-        <v>2.57</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>25.68</v>
+        <v>25.97</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.04</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.96</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.19</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>26.32</v>
+        <v>25.84</v>
       </c>
       <c r="C9" t="n">
-        <v>2.25</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>26.38</v>
+        <v>26.32</v>
       </c>
       <c r="C10" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>26.26</v>
+        <v>26.38</v>
       </c>
       <c r="C11" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>26.05</v>
+        <v>26.26</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>26.3</v>
+        <v>26.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.81</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>26.25</v>
+        <v>26.3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>26.23</v>
+        <v>26.25</v>
       </c>
       <c r="C15" t="n">
-        <v>4.09</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>25.89</v>
+        <v>26.23</v>
       </c>
       <c r="C16" t="n">
-        <v>2.9</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>25.32</v>
+        <v>25.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.28</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>25.95</v>
+        <v>25.32</v>
       </c>
       <c r="C18" t="n">
-        <v>1.53</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>25.96</v>
+        <v>25.95</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>26.15</v>
+        <v>25.96</v>
       </c>
       <c r="C20" t="n">
-        <v>4.94</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>25.74</v>
+        <v>26.15</v>
       </c>
       <c r="C21" t="n">
-        <v>1.42</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>25.45</v>
+        <v>25.74</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.59</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>25.57</v>
+        <v>25.45</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>25.92</v>
+        <v>25.57</v>
       </c>
       <c r="C24" t="n">
-        <v>2.61</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>25.58</v>
+        <v>25.92</v>
       </c>
       <c r="C25" t="n">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>25.29</v>
+        <v>25.58</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.06</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>25.2</v>
+        <v>25.29</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.71</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>25.16</v>
+        <v>25.2</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.78</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.76</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>25.56</v>
+        <v>25.39</v>
       </c>
       <c r="C30" t="n">
-        <v>1.83</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>26.04</v>
+        <v>25.56</v>
       </c>
       <c r="C31" t="n">
-        <v>7.25</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>24.92</v>
+        <v>26.04</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>25.38</v>
+        <v>24.92</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>25.6</v>
+        <v>25.38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.28</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="C35" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>25.26</v>
+        <v>25.55</v>
       </c>
       <c r="C36" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>24.97</v>
+        <v>25.26</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.32</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>25.56</v>
+        <v>24.97</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.04</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>25.38</v>
+        <v>25.56</v>
       </c>
       <c r="C39" t="n">
-        <v>3.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>25.88</v>
+        <v>25.38</v>
       </c>
       <c r="C40" t="n">
-        <v>8.01</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>26.11</v>
+        <v>25.88</v>
       </c>
       <c r="C41" t="n">
-        <v>8.699999999999999</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>25.1</v>
+        <v>26.11</v>
       </c>
       <c r="C42" t="n">
-        <v>26.13</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>24.28</v>
+        <v>25.1</v>
       </c>
       <c r="C43" t="n">
-        <v>15.13</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>24.87</v>
+        <v>24.28</v>
       </c>
       <c r="C44" t="n">
-        <v>24.29</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>25.72</v>
+        <v>24.87</v>
       </c>
       <c r="C45" t="n">
-        <v>35.23</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>25.03</v>
+        <v>25.72</v>
       </c>
       <c r="C46" t="n">
-        <v>23.3</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>25.03</v>
+      </c>
+      <c r="C47" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>24.59</v>
+        <v>24.88</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>25.05</v>
+        <v>24.59</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>25.57</v>
+        <v>25.05</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24.62</v>
+        <v>25.57</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>23.96</v>
+        <v>24.62</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24.02</v>
+        <v>23.96</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>19.9</v>
+        <v>24.02</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>21.09</v>
+        <v>19.9</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>20.01</v>
+        <v>21.09</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>19.02</v>
+        <v>20.01</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B59" s="2" t="n">
         <v>20.3</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/apparel.xlsx
+++ b/data/apparel.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,622 +481,635 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.62</v>
+        <v>27.18</v>
       </c>
       <c r="C2" t="n">
-        <v>1.22</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.34</v>
+        <v>26.62</v>
       </c>
       <c r="C3" t="n">
-        <v>0.34</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>26.18</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>-0.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>25.97</v>
       </c>
       <c r="C6" t="n">
-        <v>2.57</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>25.68</v>
+        <v>25.97</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.04</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>25.71</v>
+        <v>25.68</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.96</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>25.84</v>
+        <v>25.71</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.19</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>26.32</v>
+        <v>25.84</v>
       </c>
       <c r="C10" t="n">
-        <v>2.25</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>26.38</v>
+        <v>26.32</v>
       </c>
       <c r="C11" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>26.26</v>
+        <v>26.38</v>
       </c>
       <c r="C12" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>26.05</v>
+        <v>26.26</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>26.3</v>
+        <v>26.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.81</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>26.25</v>
+        <v>26.3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>26.23</v>
+        <v>26.25</v>
       </c>
       <c r="C16" t="n">
-        <v>4.09</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>25.89</v>
+        <v>26.23</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>25.32</v>
+        <v>25.89</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.28</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>25.95</v>
+        <v>25.32</v>
       </c>
       <c r="C19" t="n">
-        <v>1.53</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>25.96</v>
+        <v>25.95</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>26.15</v>
+        <v>25.96</v>
       </c>
       <c r="C21" t="n">
-        <v>4.94</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>25.74</v>
+        <v>26.15</v>
       </c>
       <c r="C22" t="n">
-        <v>1.42</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>25.45</v>
+        <v>25.74</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.59</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>25.57</v>
+        <v>25.45</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>25.92</v>
+        <v>25.57</v>
       </c>
       <c r="C25" t="n">
-        <v>2.61</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>25.58</v>
+        <v>25.92</v>
       </c>
       <c r="C26" t="n">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>25.29</v>
+        <v>25.58</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.06</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>25.2</v>
+        <v>25.29</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.71</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>25.16</v>
+        <v>25.2</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.78</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.76</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>25.56</v>
+        <v>25.39</v>
       </c>
       <c r="C31" t="n">
-        <v>1.83</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>26.04</v>
+        <v>25.56</v>
       </c>
       <c r="C32" t="n">
-        <v>7.25</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>24.92</v>
+        <v>26.04</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>25.38</v>
+        <v>24.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>25.6</v>
+        <v>25.38</v>
       </c>
       <c r="C35" t="n">
-        <v>2.28</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>25.55</v>
+        <v>25.6</v>
       </c>
       <c r="C36" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>25.26</v>
+        <v>25.55</v>
       </c>
       <c r="C37" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>24.97</v>
+        <v>25.26</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.32</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>25.56</v>
+        <v>24.97</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.04</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>25.38</v>
+        <v>25.56</v>
       </c>
       <c r="C40" t="n">
-        <v>3.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>25.88</v>
+        <v>25.38</v>
       </c>
       <c r="C41" t="n">
-        <v>8.01</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>26.11</v>
+        <v>25.88</v>
       </c>
       <c r="C42" t="n">
-        <v>8.699999999999999</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>25.1</v>
+        <v>26.11</v>
       </c>
       <c r="C43" t="n">
-        <v>26.13</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>24.28</v>
+        <v>25.1</v>
       </c>
       <c r="C44" t="n">
-        <v>15.13</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>24.87</v>
+        <v>24.28</v>
       </c>
       <c r="C45" t="n">
-        <v>24.29</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>25.72</v>
+        <v>24.87</v>
       </c>
       <c r="C46" t="n">
-        <v>35.23</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>25.03</v>
+        <v>25.72</v>
       </c>
       <c r="C47" t="n">
-        <v>23.3</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>25.03</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>24.59</v>
+        <v>24.88</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>25.05</v>
+        <v>24.59</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>25.57</v>
+        <v>25.05</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24.62</v>
+        <v>25.57</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>23.96</v>
+        <v>24.62</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>24.02</v>
+        <v>23.96</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>19.9</v>
+        <v>24.02</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>21.09</v>
+        <v>19.9</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>20.01</v>
+        <v>21.09</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>19.02</v>
+        <v>20.01</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B60" s="2" t="n">
         <v>20.3</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
